--- a/src/main/resources/static/view/DOC/NeracaExcelTemplate.xlsx
+++ b/src/main/resources/static/view/DOC/NeracaExcelTemplate.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">PT. PLAN A NETWOKS </t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>February28, 2022</t>
+  </si>
+  <si>
+    <t>112000</t>
+  </si>
+  <si>
+    <t>Bank BCA</t>
+  </si>
+  <si>
+    <t>310000</t>
+  </si>
+  <si>
+    <t>Modal Saham</t>
+  </si>
+  <si>
+    <t>111000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kas </t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>Hutang Usaha</t>
   </si>
 </sst>
 </file>
@@ -1473,15 +1497,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.16190476190476" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.16190476190476" style="1"/>
-    <col min="8" max="8" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.16190476190476" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.66666666666667" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="8.66666666666667" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="45.6666666666667" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="18.3333333333333" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.8285714285714" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.16190476190476" collapsed="false"/>
+    <col min="7" max="7" style="1" width="9.16190476190476" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.3333333333333" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.16190476190476" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="2:2">
@@ -1529,31 +1553,49 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="14"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="14"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="14"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="H11" s="17"/>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1000000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.0E9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0E9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1000000.0</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="14"/>
